--- a/NL1C/TimeSheet/a1903146_Silin_Ren/MCI-Timesheet Week5.xlsx
+++ b/NL1C/TimeSheet/a1903146_Silin_Ren/MCI-Timesheet Week5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Doria/Documents/2025 Semester 1/MCI Project/Timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB0A66-6790-704B-BB47-0495DE7B55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E9450-099D-6340-B9BD-26CE4A28045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="700" windowWidth="19460" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="19460" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -441,28 +441,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,8 +810,8 @@
   </sheetPr>
   <dimension ref="A2:AW19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,8 +954,8 @@
       <c r="AW6" s="9"/>
     </row>
     <row r="7" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="AW7" s="9"/>
     </row>
     <row r="8" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="11">
         <v>0.79166666666666663</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="AW8" s="9"/>
     </row>
     <row r="9" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="19">
@@ -1147,8 +1147,8 @@
       <c r="AW9" s="9"/>
     </row>
     <row r="10" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12">
         <v>0.54166666666666663</v>
       </c>
@@ -1210,8 +1210,8 @@
       <c r="AW10" s="9"/>
     </row>
     <row r="11" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12">
         <v>0.58333333333333337</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="AW12" s="9"/>
     </row>
     <row r="13" spans="1:49" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11">
         <v>0.58333333333333337</v>
       </c>
@@ -1402,30 +1402,30 @@
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
     </row>
-    <row r="14" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="19">
         <v>45750</v>
       </c>
       <c r="C14" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D14" s="12">
         <v>0.5</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,26 +1469,26 @@
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
     </row>
-    <row r="15" spans="1:49" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="12">
+    <row r="15" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1533,17 +1533,17 @@
       <c r="AW15" s="9"/>
     </row>
     <row r="16" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="19">
         <v>45751</v>
       </c>
       <c r="C16" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D16" s="11">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -1600,25 +1600,25 @@
       <c r="AW16" s="9"/>
     </row>
     <row r="17" spans="1:49" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.70833333333333337</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.5</v>
       </c>
       <c r="E17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1663,8 +1663,8 @@
       <c r="AW17" s="9"/>
     </row>
     <row r="18" spans="1:49" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="11">
         <v>0.79166666666666663</v>
       </c>
@@ -1736,21 +1736,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D17 C18:D18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
